--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-372317.8454234414</v>
+        <v>-374806.5844529577</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>145.2481701217152</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>73.19836213627499</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>127.6072314066311</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>19.6425441741295</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,10 +829,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>61.42978662487941</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>50.73003670622381</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -950,19 +950,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>276.7324014252735</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1066,7 +1066,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>116.6532574629639</v>
       </c>
       <c r="Y7" t="n">
-        <v>111.5162079902392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>75.03215064442526</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>167.0035516521493</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>72.89138480951627</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>9.415457252014363</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.7518808581219</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182161</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>63.38272884730441</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.8253826161911274</v>
+        <v>26.05480806223599</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1847,10 +1847,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>24.06466448613829</v>
       </c>
       <c r="H19" t="n">
-        <v>26.70391688093253</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.799772605712117</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>145.7322552292192</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>81.27859867330056</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>216.8180354051597</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>230.973446132915</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>101.6969570046971</v>
+        <v>33.01627976944155</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652626</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.770455879627</v>
+        <v>1377.467626609328</v>
       </c>
       <c r="C2" t="n">
-        <v>552.8079389392153</v>
+        <v>1008.505109668917</v>
       </c>
       <c r="D2" t="n">
-        <v>406.0926155839475</v>
+        <v>1008.505109668917</v>
       </c>
       <c r="E2" t="n">
-        <v>406.0926155839475</v>
+        <v>1008.505109668917</v>
       </c>
       <c r="F2" t="n">
-        <v>406.0926155839475</v>
+        <v>597.5192048793092</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>182.4467547243056</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4337,43 +4337,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2880.441212180456</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2880.441212180456</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2527.672556910342</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2154.206798649262</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943749</v>
+        <v>1764.06746667345</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1007.446783179745</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="C4" t="n">
-        <v>838.5106002518386</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="D4" t="n">
-        <v>688.3939608395028</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E4" t="n">
-        <v>540.4808672571097</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F4" t="n">
-        <v>393.5909197591993</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>225.8880831339183</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>1637.877378051533</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X4" t="n">
-        <v>1409.887827153515</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y4" t="n">
-        <v>1189.095248009985</v>
+        <v>624.6989751875257</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>2038.144201386632</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1669.181684446221</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4562,31 +4562,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250373</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2377.041072043026</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y5" t="n">
-        <v>1986.901740067214</v>
+        <v>2424.744041450754</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>923.9108438165264</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>754.9746608886195</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4720,7 +4720,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V7" t="n">
-        <v>1735.608663915319</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W7" t="n">
-        <v>1446.191493878358</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="X7" t="n">
-        <v>1218.201942980341</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y7" t="n">
-        <v>1105.559308646766</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1616.654488422264</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1247.691971481853</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939507</v>
@@ -4835,19 +4835,19 @@
         <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993392</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993392</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W8" t="n">
-        <v>2766.859418723277</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="X8" t="n">
-        <v>2393.393660462198</v>
+        <v>2366.344253709365</v>
       </c>
       <c r="Y8" t="n">
-        <v>2003.254328486386</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738575</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218339</v>
@@ -4966,46 +4966,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1356.675339798489</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882605</v>
+        <v>1356.675339798489</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1356.675339798489</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947627</v>
+        <v>1347.164776917667</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040972</v>
+        <v>1126.372197774137</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,52 +5027,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>409.1360811687895</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.853600740073</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>613.6374994204248</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038357</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797759</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832665</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854708</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648821</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138429</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703128</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5370,10 +5370,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.0655846733346</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C16" t="n">
-        <v>411.1294017454277</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.129363765926</v>
+        <v>2420.645095638608</v>
       </c>
       <c r="S16" t="n">
-        <v>2263.274529420831</v>
+        <v>2237.790261293512</v>
       </c>
       <c r="T16" t="n">
-        <v>2043.673064443772</v>
+        <v>2018.188796316454</v>
       </c>
       <c r="U16" t="n">
-        <v>1754.597837787969</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V16" t="n">
-        <v>1499.913349582082</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W16" t="n">
-        <v>1210.496179545122</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X16" t="n">
-        <v>982.5066286471044</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y16" t="n">
-        <v>761.7140495035743</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5516,19 +5516,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836013</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556945</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D19" t="n">
-        <v>415.5933575433587</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E19" t="n">
-        <v>267.6802639609656</v>
+        <v>341.9229394630504</v>
       </c>
       <c r="F19" t="n">
-        <v>120.7903164630552</v>
+        <v>341.9229394630504</v>
       </c>
       <c r="G19" t="n">
-        <v>120.7903164630552</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,28 +5771,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121602</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782918</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038303</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797704</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713837</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2232.71308162133</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2232.71308162133</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1943.637854965528</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.953366759641</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1399.536196722681</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>950.7540666811333</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1978.054428916699</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,7 +6695,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6710,13 +6710,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6953,34 +6953,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7160,19 +7160,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7187,13 +7187,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D40" t="n">
-        <v>363.7369613277355</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E40" t="n">
-        <v>363.7369613277355</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="F40" t="n">
-        <v>363.7369613277355</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="G40" t="n">
-        <v>196.5408620426154</v>
+        <v>209.2531439449487</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384024</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
@@ -7804,16 +7804,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
@@ -7825,10 +7825,10 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>209.4348714989678</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>287.5337851011849</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>221.4094022510455</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405059</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>83.05123379926476</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>65.54986409393054</v>
+        <v>40.32043864788569</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>141.4594738061305</v>
       </c>
       <c r="H19" t="n">
-        <v>113.5907959652914</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856724</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012299</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405118</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>35.29403077242534</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>85.96822242532727</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>119.4047645948081</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>0.587414922128545</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>55.21102825632914</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347514</v>
       </c>
       <c r="G37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>38.5977558415268</v>
+        <v>107.2784330767823</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251542.9259350417</v>
+        <v>251542.9259350416</v>
       </c>
       <c r="C2" t="n">
         <v>287364.6194524993</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.309891502</v>
       </c>
       <c r="F2" t="n">
-        <v>282501.3098915021</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="G2" t="n">
         <v>282501.3098915021</v>
@@ -26332,28 +26332,28 @@
         <v>282501.3098915021</v>
       </c>
       <c r="I2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="J2" t="n">
-        <v>282501.3098915021</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="K2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="L2" t="n">
+        <v>282501.3098915023</v>
+      </c>
+      <c r="M2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="N2" t="n">
         <v>282501.3098915021</v>
       </c>
-      <c r="M2" t="n">
-        <v>282501.3098915021</v>
-      </c>
-      <c r="N2" t="n">
-        <v>282501.3098915022</v>
-      </c>
       <c r="O2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524991</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363164</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31327.42805567831</v>
+        <v>31327.42805567842</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813257</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26439,22 +26439,22 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
+        <v>10557.08828678119</v>
+      </c>
+      <c r="M4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="M4" t="n">
-        <v>10557.08828678127</v>
       </c>
       <c r="N4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>18547.94754987467</v>
+        <v>18547.94754987468</v>
       </c>
       <c r="P4" t="n">
         <v>18547.94754987468</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1216463.188409623</v>
+        <v>-1216719.057649033</v>
       </c>
       <c r="C6" t="n">
-        <v>89686.5558329737</v>
+        <v>89686.55583297351</v>
       </c>
       <c r="D6" t="n">
-        <v>89686.55583297356</v>
+        <v>89686.55583297394</v>
       </c>
       <c r="E6" t="n">
-        <v>-154590.7700265418</v>
+        <v>-154625.5079519775</v>
       </c>
       <c r="F6" t="n">
-        <v>170821.6917808138</v>
+        <v>170786.9538553781</v>
       </c>
       <c r="G6" t="n">
-        <v>170821.691780814</v>
+        <v>170786.9538553781</v>
       </c>
       <c r="H6" t="n">
-        <v>170821.6917808138</v>
+        <v>170786.9538553781</v>
       </c>
       <c r="I6" t="n">
-        <v>170821.6917808139</v>
+        <v>170786.9538553781</v>
       </c>
       <c r="J6" t="n">
-        <v>-46709.5106164638</v>
+        <v>-46744.24854189927</v>
       </c>
       <c r="K6" t="n">
-        <v>170821.6917808138</v>
+        <v>170786.9538553779</v>
       </c>
       <c r="L6" t="n">
-        <v>170821.6917808138</v>
+        <v>170786.9538553782</v>
       </c>
       <c r="M6" t="n">
-        <v>85766.66384530193</v>
+        <v>85731.92591986639</v>
       </c>
       <c r="N6" t="n">
-        <v>170821.6917808139</v>
+        <v>170786.9538553781</v>
       </c>
       <c r="O6" t="n">
-        <v>146224.8380550775</v>
+        <v>146224.8380550776</v>
       </c>
       <c r="P6" t="n">
         <v>165652.5560487091</v>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022932</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>123.3879405522686</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>123.3879405522708</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>160.1894360078078</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>83.32522828944138</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>303.9530049144591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>92.99869925319553</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>109.0563979260732</v>
       </c>
       <c r="Y7" t="n">
-        <v>107.0684453618556</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>279.6508909762577</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>202.7275490263197</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>94.35543628911157</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>216.2941981370228</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28567,10 +28567,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-1.319714707885093e-12</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,37 +31592,37 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31631,7 +31631,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31680,16 +31680,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
         <v>300.7247737883114</v>
@@ -31698,19 +31698,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780294</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,22 +31841,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>305.1876769472509</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32725,7 +32725,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669223</v>
@@ -32783,19 +32783,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>558.3177848342789</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>295.974394015948</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>167.3462379728919</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096363</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326294939</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>161.9999866016177</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,22 +37388,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
